--- a/reports_summary.xlsx
+++ b/reports_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,6 +653,87 @@
         <v>2.373856782913208</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:47:53</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>97.70422959327698</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.681602954864502</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.179697036743164</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.167785167694092</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.94187760353088</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.384750366210938</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.173163890838623</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.292755365371704</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.344698429107666</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.127078533172607</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.238412380218506</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14:53:18</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.16972804069519</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.65704607963562</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.434236288070679</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.184414863586426</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.446757316589355</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.15984845161438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
